--- a/Backup/Κάυσιμα.xlsx
+++ b/Backup/Κάυσιμα.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test 640" r:id="rId3" sheetId="1"/>
-    <sheet name="test 7418" r:id="rId4" sheetId="2"/>
+    <sheet name="test 7418" r:id="rId3" sheetId="1"/>
+    <sheet name="test 640" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -39,39 +39,12 @@
     <t>id</t>
   </si>
   <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2020-11-23</t>
+    <t>2020-11-30</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2020-11-30</t>
-  </si>
-  <si>
     <t>30.8</t>
   </si>
   <si>
@@ -79,6 +52,15 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -137,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,16 +169,35 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>45645.0</v>
+        <v>280510.0</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28110.0</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G2"/>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -205,7 +206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -247,63 +248,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>280010.0</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>280005.0</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="n">
-        <v>280510.0</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Backup/Κάυσιμα.xlsx
+++ b/Backup/Κάυσιμα.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test 7418" r:id="rId3" sheetId="1"/>
-    <sheet name="test 640" r:id="rId4" sheetId="2"/>
+    <sheet name="test 640" r:id="rId3" sheetId="1"/>
+    <sheet name="test 7418" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -161,44 +161,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="n">
-        <v>280510.0</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>28110.0</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -206,7 +168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -248,6 +210,44 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>280510.0</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28110.0</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
